--- a/FitnessData/static3/pso/analysis.xlsx
+++ b/FitnessData/static3/pso/analysis.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>154.93</v>
+        <v>141.13</v>
       </c>
       <c r="B2" t="n">
-        <v>152.3</v>
+        <v>149.7</v>
       </c>
       <c r="C2" t="n">
-        <v>144.72</v>
+        <v>146.92</v>
       </c>
       <c r="D2" t="n">
-        <v>146.73</v>
+        <v>142.23</v>
       </c>
       <c r="E2" t="n">
-        <v>150.42</v>
+        <v>140.73</v>
       </c>
       <c r="F2" t="n">
-        <v>147.55</v>
+        <v>140.2</v>
       </c>
       <c r="G2" t="n">
-        <v>139.93</v>
+        <v>139.68</v>
       </c>
       <c r="H2" t="n">
-        <v>147.56</v>
+        <v>143.01</v>
       </c>
       <c r="I2" t="n">
-        <v>162.11</v>
+        <v>146.77</v>
       </c>
       <c r="J2" t="n">
-        <v>152.02</v>
+        <v>148.22</v>
       </c>
       <c r="K2" t="n">
-        <v>143.46</v>
+        <v>149.35</v>
       </c>
       <c r="L2" t="n">
-        <v>149.99</v>
+        <v>138.93</v>
       </c>
       <c r="M2" t="n">
-        <v>146.56</v>
+        <v>142.88</v>
       </c>
       <c r="N2" t="n">
-        <v>149.21</v>
+        <v>141.4</v>
       </c>
       <c r="O2" t="n">
-        <v>145.65</v>
+        <v>142.01</v>
       </c>
       <c r="P2" t="n">
-        <v>147.73</v>
+        <v>145.51</v>
       </c>
       <c r="Q2" t="n">
-        <v>142.51</v>
+        <v>142.89</v>
       </c>
       <c r="R2" t="n">
-        <v>151.27</v>
+        <v>145.99</v>
       </c>
       <c r="S2" t="n">
+        <v>141.05</v>
+      </c>
+      <c r="T2" t="n">
         <v>148.1</v>
       </c>
-      <c r="T2" t="n">
-        <v>149.89</v>
-      </c>
       <c r="U2" t="n">
-        <v>139.93</v>
+        <v>138.93</v>
       </c>
       <c r="V2" t="n">
-        <v>148.632</v>
+        <v>143.835</v>
       </c>
       <c r="W2" t="n">
-        <v>4.78840441505365</v>
+        <v>3.413480242863732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>271.34</v>
+        <v>295.72</v>
       </c>
       <c r="B3" t="n">
-        <v>289.5</v>
+        <v>303.16</v>
       </c>
       <c r="C3" t="n">
-        <v>294.76</v>
+        <v>280.24</v>
       </c>
       <c r="D3" t="n">
-        <v>294.84</v>
+        <v>264.48</v>
       </c>
       <c r="E3" t="n">
-        <v>295.24</v>
+        <v>283.16</v>
       </c>
       <c r="F3" t="n">
-        <v>307.78</v>
+        <v>272.92</v>
       </c>
       <c r="G3" t="n">
-        <v>314.08</v>
+        <v>265.42</v>
       </c>
       <c r="H3" t="n">
-        <v>285.78</v>
+        <v>265</v>
       </c>
       <c r="I3" t="n">
-        <v>296.04</v>
+        <v>266.88</v>
       </c>
       <c r="J3" t="n">
-        <v>289.36</v>
+        <v>282.16</v>
       </c>
       <c r="K3" t="n">
-        <v>304.72</v>
+        <v>313.34</v>
       </c>
       <c r="L3" t="n">
-        <v>299.08</v>
+        <v>267.48</v>
       </c>
       <c r="M3" t="n">
-        <v>299.52</v>
+        <v>281.1</v>
       </c>
       <c r="N3" t="n">
-        <v>292.36</v>
+        <v>256.32</v>
       </c>
       <c r="O3" t="n">
-        <v>316.6</v>
+        <v>280.72</v>
       </c>
       <c r="P3" t="n">
-        <v>305.98</v>
+        <v>267.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>284.48</v>
+        <v>285.8</v>
       </c>
       <c r="R3" t="n">
-        <v>296.86</v>
+        <v>270.94</v>
       </c>
       <c r="S3" t="n">
-        <v>295.16</v>
+        <v>297.84</v>
       </c>
       <c r="T3" t="n">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="U3" t="n">
-        <v>271.34</v>
+        <v>256.32</v>
       </c>
       <c r="V3" t="n">
-        <v>296.2239999999999</v>
+        <v>279.097</v>
       </c>
       <c r="W3" t="n">
-        <v>10.41582318549902</v>
+        <v>14.71427130373774</v>
       </c>
     </row>
   </sheetData>
